--- a/data/pca/factorExposure/factorExposure_2009-10-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01196373166335288</v>
+        <v>0.0168861250463898</v>
       </c>
       <c r="C2">
-        <v>0.001418637761513047</v>
+        <v>0.0009617863297682869</v>
       </c>
       <c r="D2">
-        <v>0.005509553816608212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008820406561173872</v>
+      </c>
+      <c r="E2">
+        <v>-0.001869542232234876</v>
+      </c>
+      <c r="F2">
+        <v>-0.01232624320866799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1107889650966844</v>
+        <v>0.09376482119086728</v>
       </c>
       <c r="C4">
-        <v>0.009350879558456962</v>
+        <v>0.01455941680292576</v>
       </c>
       <c r="D4">
-        <v>0.05621221939435538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0843990988125246</v>
+      </c>
+      <c r="E4">
+        <v>-0.02933597883433573</v>
+      </c>
+      <c r="F4">
+        <v>0.0318294300954276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1400521827626965</v>
+        <v>0.1585002296711337</v>
       </c>
       <c r="C6">
-        <v>0.01397549361913631</v>
+        <v>0.02606412280567026</v>
       </c>
       <c r="D6">
-        <v>-0.02703309327849693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02268932018273786</v>
+      </c>
+      <c r="E6">
+        <v>-0.01039175949895736</v>
+      </c>
+      <c r="F6">
+        <v>0.04489969620804508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07555878153493487</v>
+        <v>0.06338330720704566</v>
       </c>
       <c r="C7">
-        <v>-0.005128401402322113</v>
+        <v>-0.001833308076205755</v>
       </c>
       <c r="D7">
-        <v>0.03459915226550405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0530156504213113</v>
+      </c>
+      <c r="E7">
+        <v>-0.01202662763053756</v>
+      </c>
+      <c r="F7">
+        <v>0.04732742206133159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06589462856251664</v>
+        <v>0.05714154394666722</v>
       </c>
       <c r="C8">
-        <v>-0.01658439214039503</v>
+        <v>-0.01354711159397101</v>
       </c>
       <c r="D8">
-        <v>0.005585885863745849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03316018955913255</v>
+      </c>
+      <c r="E8">
+        <v>-0.01806642239253512</v>
+      </c>
+      <c r="F8">
+        <v>-0.02737868639045514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08808940638377777</v>
+        <v>0.0710048867676355</v>
       </c>
       <c r="C9">
-        <v>0.008442405725320914</v>
+        <v>0.01022048206372549</v>
       </c>
       <c r="D9">
-        <v>0.05692735564614049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08687900694457128</v>
+      </c>
+      <c r="E9">
+        <v>-0.02351493472507509</v>
+      </c>
+      <c r="F9">
+        <v>0.04817733611438092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.06611973259892627</v>
+        <v>0.09279972143117629</v>
       </c>
       <c r="C10">
-        <v>0.005427458282312316</v>
+        <v>0.02115160509472639</v>
       </c>
       <c r="D10">
-        <v>-0.1485672476336454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1664609901170432</v>
+      </c>
+      <c r="E10">
+        <v>0.03336030727457296</v>
+      </c>
+      <c r="F10">
+        <v>-0.05485545966700642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09639948825083035</v>
+        <v>0.08787059812893892</v>
       </c>
       <c r="C11">
-        <v>0.007881011603778279</v>
+        <v>0.01023281256323344</v>
       </c>
       <c r="D11">
-        <v>0.08913575550352865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170451145637991</v>
+      </c>
+      <c r="E11">
+        <v>-0.04657535687431439</v>
+      </c>
+      <c r="F11">
+        <v>0.02262431442958732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1032272524944495</v>
+        <v>0.09187643608176704</v>
       </c>
       <c r="C12">
-        <v>0.005954317816764441</v>
+        <v>0.007620018575555437</v>
       </c>
       <c r="D12">
-        <v>0.09014189448721494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319737017265584</v>
+      </c>
+      <c r="E12">
+        <v>-0.04706697267351069</v>
+      </c>
+      <c r="F12">
+        <v>0.02826646017751364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04668072486010314</v>
+        <v>0.04202847211481971</v>
       </c>
       <c r="C13">
-        <v>0.001624942430938654</v>
+        <v>0.002582196493696957</v>
       </c>
       <c r="D13">
-        <v>0.03359553130099757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05376685484144885</v>
+      </c>
+      <c r="E13">
+        <v>0.004699951933823204</v>
+      </c>
+      <c r="F13">
+        <v>0.001190968968240658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02584599220095506</v>
+        <v>0.02404392628255684</v>
       </c>
       <c r="C14">
-        <v>0.0130870338718817</v>
+        <v>0.01379656086225711</v>
       </c>
       <c r="D14">
-        <v>0.02299660355623146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03270413552465937</v>
+      </c>
+      <c r="E14">
+        <v>-0.01909780097645521</v>
+      </c>
+      <c r="F14">
+        <v>0.01255922082139987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03984657609525333</v>
+        <v>0.03266310378188805</v>
       </c>
       <c r="C15">
-        <v>0.003794374635336167</v>
+        <v>0.004582314845856035</v>
       </c>
       <c r="D15">
-        <v>0.01860671187080177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04466281120069642</v>
+      </c>
+      <c r="E15">
+        <v>-0.00578568614528491</v>
+      </c>
+      <c r="F15">
+        <v>0.02418962435800059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08278748326220563</v>
+        <v>0.07421061038052841</v>
       </c>
       <c r="C16">
-        <v>0.0006747629132939383</v>
+        <v>0.0008998824653658589</v>
       </c>
       <c r="D16">
-        <v>0.08615229397255757</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1275578480076588</v>
+      </c>
+      <c r="E16">
+        <v>-0.06121888275790319</v>
+      </c>
+      <c r="F16">
+        <v>0.02662754851989023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000654214106512248</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.000190037429051291</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.0008777312832342418</v>
+      </c>
+      <c r="E17">
+        <v>-0.0005445930743449564</v>
+      </c>
+      <c r="F17">
+        <v>-0.0007025843357414438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.003438824641747703</v>
+        <v>0.03580735547414381</v>
       </c>
       <c r="C18">
-        <v>6.239274134427415e-06</v>
+        <v>-0.00314686495524553</v>
       </c>
       <c r="D18">
-        <v>-0.0006140913604423238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01562120370969883</v>
+      </c>
+      <c r="E18">
+        <v>0.009513537762637782</v>
+      </c>
+      <c r="F18">
+        <v>-0.008722171343027583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06271882564754036</v>
+        <v>0.06123058423720187</v>
       </c>
       <c r="C20">
-        <v>0.00118079848054102</v>
+        <v>-0.0002462303561968469</v>
       </c>
       <c r="D20">
-        <v>0.03329912036177089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07761125254307219</v>
+      </c>
+      <c r="E20">
+        <v>-0.05658030286554841</v>
+      </c>
+      <c r="F20">
+        <v>0.02424875196484102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04391893730572891</v>
+        <v>0.04067833854030961</v>
       </c>
       <c r="C21">
-        <v>0.006745858344581517</v>
+        <v>0.006395584478520409</v>
       </c>
       <c r="D21">
-        <v>0.008138975053202591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03748901803642949</v>
+      </c>
+      <c r="E21">
+        <v>0.002105925448661501</v>
+      </c>
+      <c r="F21">
+        <v>-0.02537241719996549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02088007616062603</v>
+        <v>0.04308159801463433</v>
       </c>
       <c r="C22">
-        <v>6.518056908922827e-05</v>
+        <v>0.0004525543995914203</v>
       </c>
       <c r="D22">
-        <v>-0.02019199762978056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006622767756228927</v>
+      </c>
+      <c r="E22">
+        <v>-0.03464927885308824</v>
+      </c>
+      <c r="F22">
+        <v>-0.03752290788460613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02082668392342125</v>
+        <v>0.04305747696550235</v>
       </c>
       <c r="C23">
-        <v>6.233535670580635e-05</v>
+        <v>0.0004441762675775111</v>
       </c>
       <c r="D23">
-        <v>-0.02018205268579779</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006638457883005525</v>
+      </c>
+      <c r="E23">
+        <v>-0.03483234012405483</v>
+      </c>
+      <c r="F23">
+        <v>-0.03748701931492321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09146157642676854</v>
+        <v>0.07985393478621679</v>
       </c>
       <c r="C24">
-        <v>-0.000328111492952308</v>
+        <v>0.001507825358727294</v>
       </c>
       <c r="D24">
-        <v>0.09675154727886581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1217113539808813</v>
+      </c>
+      <c r="E24">
+        <v>-0.04936056061064927</v>
+      </c>
+      <c r="F24">
+        <v>0.02745368392982625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09542058836067491</v>
+        <v>0.08510551780256956</v>
       </c>
       <c r="C25">
-        <v>0.00184873193523835</v>
+        <v>0.004243309282841072</v>
       </c>
       <c r="D25">
-        <v>0.08965461180639488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094330131608019</v>
+      </c>
+      <c r="E25">
+        <v>-0.03293176004149021</v>
+      </c>
+      <c r="F25">
+        <v>0.02698782770964898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.06074579992352526</v>
+        <v>0.05849216873250692</v>
       </c>
       <c r="C26">
-        <v>0.01327412097063523</v>
+        <v>0.0141700413120994</v>
       </c>
       <c r="D26">
-        <v>0.006036781168577466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04076321598061998</v>
+      </c>
+      <c r="E26">
+        <v>-0.02797825437401696</v>
+      </c>
+      <c r="F26">
+        <v>-0.00607768371891335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1208772380198656</v>
+        <v>0.1423569708767637</v>
       </c>
       <c r="C28">
-        <v>-0.00304927061100312</v>
+        <v>0.02207509916799561</v>
       </c>
       <c r="D28">
-        <v>-0.2644923795831199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2616330482100767</v>
+      </c>
+      <c r="E28">
+        <v>0.06684020278309188</v>
+      </c>
+      <c r="F28">
+        <v>0.008973144176754488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02611310608242372</v>
+        <v>0.02836259806806841</v>
       </c>
       <c r="C29">
-        <v>0.007812971953830768</v>
+        <v>0.00861755825118617</v>
       </c>
       <c r="D29">
-        <v>0.0184001877731108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03089099851433807</v>
+      </c>
+      <c r="E29">
+        <v>-0.01380165088426843</v>
+      </c>
+      <c r="F29">
+        <v>-0.0136053237310273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09681887882887215</v>
+        <v>0.05939718307636993</v>
       </c>
       <c r="C30">
-        <v>-0.002647269720873252</v>
+        <v>0.002531515942688697</v>
       </c>
       <c r="D30">
-        <v>0.06402085493364779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09013470362183096</v>
+      </c>
+      <c r="E30">
+        <v>-0.01667342410489515</v>
+      </c>
+      <c r="F30">
+        <v>0.07858979596044233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0411035452304092</v>
+        <v>0.05072652665583086</v>
       </c>
       <c r="C31">
-        <v>0.01389275545015718</v>
+        <v>0.01530393942816718</v>
       </c>
       <c r="D31">
-        <v>0.01501292921185998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02483338562193829</v>
+      </c>
+      <c r="E31">
+        <v>-0.02837138242694076</v>
+      </c>
+      <c r="F31">
+        <v>-0.001136575201749118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05389411452719031</v>
+        <v>0.05133292007847625</v>
       </c>
       <c r="C32">
-        <v>-0.003228353375868517</v>
+        <v>-0.001840680623864922</v>
       </c>
       <c r="D32">
-        <v>0.01231511852345758</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03529337730927794</v>
+      </c>
+      <c r="E32">
+        <v>-0.03326748079358421</v>
+      </c>
+      <c r="F32">
+        <v>0.003081429742221608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09778352380081191</v>
+        <v>0.08920637712232633</v>
       </c>
       <c r="C33">
-        <v>0.003983011261262414</v>
+        <v>0.006674831967556372</v>
       </c>
       <c r="D33">
-        <v>0.06559715875542027</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1008603321708863</v>
+      </c>
+      <c r="E33">
+        <v>-0.04437156360046492</v>
+      </c>
+      <c r="F33">
+        <v>0.03667421348483884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08382330124508036</v>
+        <v>0.06760927975097855</v>
       </c>
       <c r="C34">
-        <v>0.007300173550411738</v>
+        <v>0.009959613564948939</v>
       </c>
       <c r="D34">
-        <v>0.08450735931201817</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1092684535867821</v>
+      </c>
+      <c r="E34">
+        <v>-0.0348877483809362</v>
+      </c>
+      <c r="F34">
+        <v>0.03332187103891639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02459150742400869</v>
+        <v>0.02475806229345352</v>
       </c>
       <c r="C35">
-        <v>-4.299380904384919e-05</v>
+        <v>0.002466741872906561</v>
       </c>
       <c r="D35">
-        <v>0.003388555075123683</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01108943079150342</v>
+      </c>
+      <c r="E35">
+        <v>-0.01186048761611245</v>
+      </c>
+      <c r="F35">
+        <v>0.0003671772547161748</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01714738083025116</v>
+        <v>0.02750492599369269</v>
       </c>
       <c r="C36">
-        <v>0.008488891155323603</v>
+        <v>0.006767870346146176</v>
       </c>
       <c r="D36">
-        <v>0.02743670723471068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03965234428484787</v>
+      </c>
+      <c r="E36">
+        <v>-0.01640908208989051</v>
+      </c>
+      <c r="F36">
+        <v>0.01519608392659062</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0009650964870118133</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005768458767847085</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002203134757459029</v>
+      </c>
+      <c r="E37">
+        <v>0.0009736671046562548</v>
+      </c>
+      <c r="F37">
+        <v>0.0009426566259686407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0001471303199188251</v>
+        <v>7.87700087834649e-05</v>
       </c>
       <c r="C38">
-        <v>1.631731938396965e-05</v>
+        <v>-5.534395100934322e-05</v>
       </c>
       <c r="D38">
-        <v>0.001323790278672278</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0006118324691088954</v>
+      </c>
+      <c r="E38">
+        <v>0.0003652882001079203</v>
+      </c>
+      <c r="F38">
+        <v>0.0002576086272154926</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1317487951031114</v>
+        <v>0.1042376827622487</v>
       </c>
       <c r="C39">
-        <v>0.01132672675583816</v>
+        <v>0.01538229657542111</v>
       </c>
       <c r="D39">
-        <v>0.1313034764722322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1552239108126501</v>
+      </c>
+      <c r="E39">
+        <v>-0.06033574416732826</v>
+      </c>
+      <c r="F39">
+        <v>0.02958241861173216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02803879768160333</v>
+        <v>0.04124016500330464</v>
       </c>
       <c r="C40">
-        <v>0.006966492124223394</v>
+        <v>0.006904468992726964</v>
       </c>
       <c r="D40">
-        <v>-0.01456211261645974</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03082703251610187</v>
+      </c>
+      <c r="E40">
+        <v>-0.002520131006670915</v>
+      </c>
+      <c r="F40">
+        <v>-0.01637864632591357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02222340889524351</v>
+        <v>0.02828721894345163</v>
       </c>
       <c r="C41">
-        <v>0.005885202823868002</v>
+        <v>0.006919104286734055</v>
       </c>
       <c r="D41">
-        <v>-0.001592990760394625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01027154334328816</v>
+      </c>
+      <c r="E41">
+        <v>-0.01194078710112396</v>
+      </c>
+      <c r="F41">
+        <v>-0.005925374571271208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02543202536262103</v>
+        <v>0.04092398319986848</v>
       </c>
       <c r="C43">
-        <v>0.007894226322925729</v>
+        <v>0.007074444338284051</v>
       </c>
       <c r="D43">
-        <v>0.008232004050156465</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01901778617712393</v>
+      </c>
+      <c r="E43">
+        <v>-0.02537421384879536</v>
+      </c>
+      <c r="F43">
+        <v>-0.01262813441795535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1011755164141523</v>
+        <v>0.0791202282064733</v>
       </c>
       <c r="C44">
-        <v>0.01582284995163649</v>
+        <v>0.01899472862635359</v>
       </c>
       <c r="D44">
-        <v>0.06761701916013044</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09815369182909546</v>
+      </c>
+      <c r="E44">
+        <v>-0.0625999647933403</v>
+      </c>
+      <c r="F44">
+        <v>0.1546905218388123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0114903885076978</v>
+        <v>0.02342852410998615</v>
       </c>
       <c r="C46">
-        <v>0.003977003960368273</v>
+        <v>0.003331817210946452</v>
       </c>
       <c r="D46">
-        <v>-0.001890731415568344</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01286091260575393</v>
+      </c>
+      <c r="E46">
+        <v>-0.02629365525219085</v>
+      </c>
+      <c r="F46">
+        <v>-0.006584951008309877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03648796672622501</v>
+        <v>0.05222275792687572</v>
       </c>
       <c r="C47">
-        <v>0.002308401345833469</v>
+        <v>0.003225542348115324</v>
       </c>
       <c r="D47">
-        <v>-0.01334971692838898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01408694783926098</v>
+      </c>
+      <c r="E47">
+        <v>-0.02307619156301342</v>
+      </c>
+      <c r="F47">
+        <v>-0.03177456242064642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05068196415708909</v>
+        <v>0.05019295092903166</v>
       </c>
       <c r="C48">
-        <v>0.0009623836445437261</v>
+        <v>0.002077853932797264</v>
       </c>
       <c r="D48">
-        <v>0.02997444566811188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05000758230123787</v>
+      </c>
+      <c r="E48">
+        <v>0.004905784660549159</v>
+      </c>
+      <c r="F48">
+        <v>0.009683653866217123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2090126638462296</v>
+        <v>0.2005430969140141</v>
       </c>
       <c r="C49">
-        <v>-0.0008362327196255313</v>
+        <v>0.01878308654883316</v>
       </c>
       <c r="D49">
-        <v>-0.003876984241298342</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005452194530446679</v>
+      </c>
+      <c r="E49">
+        <v>-0.03181098189490421</v>
+      </c>
+      <c r="F49">
+        <v>0.03707544761134859</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04223786060551411</v>
+        <v>0.05103922671869583</v>
       </c>
       <c r="C50">
-        <v>0.009504950084287533</v>
+        <v>0.01097164677123958</v>
       </c>
       <c r="D50">
-        <v>0.011617333269233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02428984540519465</v>
+      </c>
+      <c r="E50">
+        <v>-0.02978767009181996</v>
+      </c>
+      <c r="F50">
+        <v>0.009908919220741851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>2.257047428065477e-05</v>
+        <v>-3.881753053660418e-05</v>
       </c>
       <c r="C51">
-        <v>-2.118222192199169e-05</v>
+        <v>-1.475286255370178e-05</v>
       </c>
       <c r="D51">
-        <v>0.0001002376348517257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001254279847380344</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001154256279848441</v>
+      </c>
+      <c r="F51">
+        <v>0.0002031855532394699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1566428351175967</v>
+        <v>0.147362376110735</v>
       </c>
       <c r="C52">
-        <v>0.002760860122768643</v>
+        <v>0.01682301857723097</v>
       </c>
       <c r="D52">
-        <v>0.04894424397850422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04286109142386872</v>
+      </c>
+      <c r="E52">
+        <v>-0.01923986302290819</v>
+      </c>
+      <c r="F52">
+        <v>0.04377296431036354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1723590236552142</v>
+        <v>0.1714666370158016</v>
       </c>
       <c r="C53">
-        <v>0.001089570280571354</v>
+        <v>0.019528290951877</v>
       </c>
       <c r="D53">
-        <v>0.01180603755129517</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005690614885566046</v>
+      </c>
+      <c r="E53">
+        <v>-0.02850117461797395</v>
+      </c>
+      <c r="F53">
+        <v>0.0742322227595634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02203037259896988</v>
+        <v>0.0211543663689306</v>
       </c>
       <c r="C54">
-        <v>0.01035930606931061</v>
+        <v>0.01139864495720945</v>
       </c>
       <c r="D54">
-        <v>0.02170825578576542</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03441799231197259</v>
+      </c>
+      <c r="E54">
+        <v>-0.02170655232867182</v>
+      </c>
+      <c r="F54">
+        <v>-0.005328960014527188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1065633644403047</v>
+        <v>0.1140316181683725</v>
       </c>
       <c r="C55">
-        <v>0.006284302161173565</v>
+        <v>0.01711157505161872</v>
       </c>
       <c r="D55">
-        <v>0.00486158802701052</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008402354545484225</v>
+      </c>
+      <c r="E55">
+        <v>-0.02390839888399147</v>
+      </c>
+      <c r="F55">
+        <v>0.047757312058772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1754096231826358</v>
+        <v>0.1768967598768607</v>
       </c>
       <c r="C56">
-        <v>-0.0007637493566807848</v>
+        <v>0.01734452728498788</v>
       </c>
       <c r="D56">
-        <v>-0.009439730794646122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00115644733004109</v>
+      </c>
+      <c r="E56">
+        <v>-0.03308242574499708</v>
+      </c>
+      <c r="F56">
+        <v>0.05256843303218008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03581009479794094</v>
+        <v>0.04457645154470278</v>
       </c>
       <c r="C58">
-        <v>0.004570281913368336</v>
+        <v>-0.0008214312108905743</v>
       </c>
       <c r="D58">
-        <v>0.04888545639919942</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07151914560607583</v>
+      </c>
+      <c r="E58">
+        <v>-0.03078228612044263</v>
+      </c>
+      <c r="F58">
+        <v>-0.03811812272695567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1489177545306846</v>
+        <v>0.1677637405806726</v>
       </c>
       <c r="C59">
-        <v>-0.004647338373332651</v>
+        <v>0.02205205436636523</v>
       </c>
       <c r="D59">
-        <v>-0.2331046163596458</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2166168068722937</v>
+      </c>
+      <c r="E59">
+        <v>0.04577283259733849</v>
+      </c>
+      <c r="F59">
+        <v>-0.03511645233672896</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2530350056799098</v>
+        <v>0.2320013101454268</v>
       </c>
       <c r="C60">
-        <v>-0.02680261051885655</v>
+        <v>-0.002432169586312761</v>
       </c>
       <c r="D60">
-        <v>0.04946075336918466</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04205916101080599</v>
+      </c>
+      <c r="E60">
+        <v>-0.009648455702177754</v>
+      </c>
+      <c r="F60">
+        <v>-0.005639608495806159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1079813679902513</v>
+        <v>0.08030043241822386</v>
       </c>
       <c r="C61">
-        <v>0.006230237926827014</v>
+        <v>0.01119007156779661</v>
       </c>
       <c r="D61">
-        <v>0.08804381371292076</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.117899563177642</v>
+      </c>
+      <c r="E61">
+        <v>-0.04001132982114779</v>
+      </c>
+      <c r="F61">
+        <v>0.01252933265565617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1748021233638996</v>
+        <v>0.1699072608075204</v>
       </c>
       <c r="C62">
-        <v>0.002848469068391905</v>
+        <v>0.02056486161840407</v>
       </c>
       <c r="D62">
-        <v>-0.007346718180227192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005948558476861776</v>
+      </c>
+      <c r="E62">
+        <v>-0.03338945475331732</v>
+      </c>
+      <c r="F62">
+        <v>0.03620063524385011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0506610251040133</v>
+        <v>0.04571450821121494</v>
       </c>
       <c r="C63">
-        <v>0.001324797007310471</v>
+        <v>0.001680259913435687</v>
       </c>
       <c r="D63">
-        <v>0.03348252394824733</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05834966098207024</v>
+      </c>
+      <c r="E63">
+        <v>-0.02264816634129959</v>
+      </c>
+      <c r="F63">
+        <v>0.003101610630332939</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1009276380843155</v>
+        <v>0.1098445474385402</v>
       </c>
       <c r="C64">
-        <v>0.005605647194771497</v>
+        <v>0.01107956259132397</v>
       </c>
       <c r="D64">
-        <v>0.01212989109212013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04425285689386947</v>
+      </c>
+      <c r="E64">
+        <v>-0.02263517042780797</v>
+      </c>
+      <c r="F64">
+        <v>0.02521252381073558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1297286195503383</v>
+        <v>0.1497004637203339</v>
       </c>
       <c r="C65">
-        <v>0.02123625245416742</v>
+        <v>0.03359997755350815</v>
       </c>
       <c r="D65">
-        <v>-0.02271646330278927</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04311111941520237</v>
+      </c>
+      <c r="E65">
+        <v>-0.005320527698273294</v>
+      </c>
+      <c r="F65">
+        <v>0.04126725918804352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1585446635386721</v>
+        <v>0.1236077145983433</v>
       </c>
       <c r="C66">
-        <v>0.005983813703248073</v>
+        <v>0.01327047484274305</v>
       </c>
       <c r="D66">
-        <v>0.1246390994079204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1429417303089528</v>
+      </c>
+      <c r="E66">
+        <v>-0.06610594438117852</v>
+      </c>
+      <c r="F66">
+        <v>0.03322036895661158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06197539110263802</v>
+        <v>0.05795124232288839</v>
       </c>
       <c r="C67">
-        <v>-0.0007694240542663976</v>
+        <v>0.002814719945873475</v>
       </c>
       <c r="D67">
-        <v>0.03606006333834284</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05652747002253199</v>
+      </c>
+      <c r="E67">
+        <v>-0.01665187851173923</v>
+      </c>
+      <c r="F67">
+        <v>-0.03142248615394688</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.09829215168462416</v>
+        <v>0.1164145861487328</v>
       </c>
       <c r="C68">
-        <v>0.00894866836373831</v>
+        <v>0.03260817631748027</v>
       </c>
       <c r="D68">
-        <v>-0.2444619653676518</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2605417374528023</v>
+      </c>
+      <c r="E68">
+        <v>0.08630344026901975</v>
+      </c>
+      <c r="F68">
+        <v>0.005193491651648213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03451425501888775</v>
+        <v>0.03946424517105963</v>
       </c>
       <c r="C69">
-        <v>-0.001488464578838616</v>
+        <v>0.001143394540799028</v>
       </c>
       <c r="D69">
-        <v>0.0003486919194229309</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008163038754953398</v>
+      </c>
+      <c r="E69">
+        <v>-0.02338096139879989</v>
+      </c>
+      <c r="F69">
+        <v>0.001020621935613817</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04744419109044746</v>
+        <v>0.0668250007958535</v>
       </c>
       <c r="C70">
-        <v>-0.02761451233018399</v>
+        <v>-0.02753452281299251</v>
       </c>
       <c r="D70">
-        <v>-0.04805569251924642</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02406223326482141</v>
+      </c>
+      <c r="E70">
+        <v>0.03495522287506225</v>
+      </c>
+      <c r="F70">
+        <v>-0.182783923842283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1136705186531783</v>
+        <v>0.1362292895119373</v>
       </c>
       <c r="C71">
-        <v>0.0118043934772872</v>
+        <v>0.03691985755206161</v>
       </c>
       <c r="D71">
-        <v>-0.2645454976296257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723711010119974</v>
+      </c>
+      <c r="E71">
+        <v>0.09678467239639831</v>
+      </c>
+      <c r="F71">
+        <v>0.01028143179099192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1346220423747093</v>
+        <v>0.1424686579483443</v>
       </c>
       <c r="C72">
-        <v>0.01453637460634389</v>
+        <v>0.02679376746009885</v>
       </c>
       <c r="D72">
-        <v>-0.01373512781643122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002562793528470838</v>
+      </c>
+      <c r="E72">
+        <v>-0.03682429740221677</v>
+      </c>
+      <c r="F72">
+        <v>0.03133559235775174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.200468975591849</v>
+        <v>0.2032061724667369</v>
       </c>
       <c r="C73">
-        <v>-0.005960430458388442</v>
+        <v>0.01249082512334993</v>
       </c>
       <c r="D73">
-        <v>-0.002865710501972798</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01808127086893801</v>
+      </c>
+      <c r="E73">
+        <v>-0.06346001496879464</v>
+      </c>
+      <c r="F73">
+        <v>0.03705270201060957</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09847639523126915</v>
+        <v>0.09495945282052158</v>
       </c>
       <c r="C74">
-        <v>0.002066682804094608</v>
+        <v>0.0133829836646929</v>
       </c>
       <c r="D74">
-        <v>0.01975324379139507</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01733194353558834</v>
+      </c>
+      <c r="E74">
+        <v>-0.0441654670631603</v>
+      </c>
+      <c r="F74">
+        <v>0.0575649374021731</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1311165533002252</v>
+        <v>0.1273866468203099</v>
       </c>
       <c r="C75">
-        <v>0.01610126044546665</v>
+        <v>0.02800762695594746</v>
       </c>
       <c r="D75">
-        <v>0.01717287931394317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03049880672767277</v>
+      </c>
+      <c r="E75">
+        <v>-0.05792374952313625</v>
+      </c>
+      <c r="F75">
+        <v>0.02225240265647677</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08195573584069399</v>
+        <v>0.08735490520523465</v>
       </c>
       <c r="C77">
-        <v>0.007822834000299275</v>
+        <v>0.008149952943532266</v>
       </c>
       <c r="D77">
-        <v>0.09098292061889961</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1115367278947613</v>
+      </c>
+      <c r="E77">
+        <v>-0.03841705691621334</v>
+      </c>
+      <c r="F77">
+        <v>0.03459421103839911</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1167832726418911</v>
+        <v>0.09991172597578005</v>
       </c>
       <c r="C78">
-        <v>0.03493968312098637</v>
+        <v>0.03913596169126626</v>
       </c>
       <c r="D78">
-        <v>0.06988560357971414</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1148749082294735</v>
+      </c>
+      <c r="E78">
+        <v>-0.07521080654830632</v>
+      </c>
+      <c r="F78">
+        <v>0.04716364264137068</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1611580075115175</v>
+        <v>0.1641629850838263</v>
       </c>
       <c r="C79">
-        <v>0.007814306640306497</v>
+        <v>0.02287568786827671</v>
       </c>
       <c r="D79">
-        <v>-0.007647330616063872</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01408884714383197</v>
+      </c>
+      <c r="E79">
+        <v>-0.04560592893869782</v>
+      </c>
+      <c r="F79">
+        <v>0.01236030206378443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.09084675631430236</v>
+        <v>0.08235910812474273</v>
       </c>
       <c r="C80">
-        <v>-0.006343082169375947</v>
+        <v>-0.001005862363678766</v>
       </c>
       <c r="D80">
-        <v>0.04707805313707089</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05638766365462849</v>
+      </c>
+      <c r="E80">
+        <v>-0.03612099205811273</v>
+      </c>
+      <c r="F80">
+        <v>-0.02263752487171921</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1190497555829599</v>
+        <v>0.1196980238009469</v>
       </c>
       <c r="C81">
-        <v>0.01997868958680014</v>
+        <v>0.03185108842692689</v>
       </c>
       <c r="D81">
-        <v>0.03112431650107724</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01459873597701632</v>
+      </c>
+      <c r="E81">
+        <v>-0.056526540976846</v>
+      </c>
+      <c r="F81">
+        <v>0.01796555477419485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1680100815804881</v>
+        <v>0.1661237063839088</v>
       </c>
       <c r="C82">
-        <v>0.007283636425215039</v>
+        <v>0.02502337151928965</v>
       </c>
       <c r="D82">
-        <v>0.01729193001069779</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003634287152393327</v>
+      </c>
+      <c r="E82">
+        <v>-0.02616355729989401</v>
+      </c>
+      <c r="F82">
+        <v>0.08205009252083949</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06701262336647759</v>
+        <v>0.05890767318636002</v>
       </c>
       <c r="C83">
-        <v>0.0007864843595933574</v>
+        <v>0.002682514555291283</v>
       </c>
       <c r="D83">
-        <v>0.03360471240699827</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05162293334330868</v>
+      </c>
+      <c r="E83">
+        <v>-0.003069140989916012</v>
+      </c>
+      <c r="F83">
+        <v>-0.0304719572569637</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07422741846600671</v>
+        <v>0.05912455527825682</v>
       </c>
       <c r="C84">
-        <v>0.007832228583879441</v>
+        <v>0.01099090816824985</v>
       </c>
       <c r="D84">
-        <v>0.04600328976889333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06419949645595789</v>
+      </c>
+      <c r="E84">
+        <v>-0.00758970621789746</v>
+      </c>
+      <c r="F84">
+        <v>0.005646543877965277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1334948871039402</v>
+        <v>0.1354953209267355</v>
       </c>
       <c r="C85">
-        <v>0.01617657215148958</v>
+        <v>0.02796383308100854</v>
       </c>
       <c r="D85">
-        <v>0.006037717219027604</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009681459954980657</v>
+      </c>
+      <c r="E85">
+        <v>-0.03591266845853908</v>
+      </c>
+      <c r="F85">
+        <v>0.048403047771045</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.06980006142636362</v>
+        <v>0.09448583144822956</v>
       </c>
       <c r="C86">
-        <v>-0.00377690507101546</v>
+        <v>-0.005493512424186633</v>
       </c>
       <c r="D86">
-        <v>-0.06302811395032328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04012728234980503</v>
+      </c>
+      <c r="E86">
+        <v>-0.2236849532294516</v>
+      </c>
+      <c r="F86">
+        <v>-0.9057135501140876</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1243996342641439</v>
+        <v>0.09440550025019458</v>
       </c>
       <c r="C87">
-        <v>0.01486854946074097</v>
+        <v>0.01931889710548268</v>
       </c>
       <c r="D87">
-        <v>0.06299014591907179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09392969590275035</v>
+      </c>
+      <c r="E87">
+        <v>0.05266662605957079</v>
+      </c>
+      <c r="F87">
+        <v>0.04683631065125709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05730113759501484</v>
+        <v>0.06073181638645854</v>
       </c>
       <c r="C88">
-        <v>0.001162651664994662</v>
+        <v>0.002137204538763408</v>
       </c>
       <c r="D88">
-        <v>0.02396630247254753</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04949424206714018</v>
+      </c>
+      <c r="E88">
+        <v>-0.0238206381059663</v>
+      </c>
+      <c r="F88">
+        <v>0.01370813282179114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1177278331041017</v>
+        <v>0.130670840210513</v>
       </c>
       <c r="C89">
-        <v>-0.01089120654582441</v>
+        <v>0.01350517615726478</v>
       </c>
       <c r="D89">
-        <v>-0.2760579041487005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2470807284802115</v>
+      </c>
+      <c r="E89">
+        <v>0.08877068153762356</v>
+      </c>
+      <c r="F89">
+        <v>-0.00791710142073648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1208289009731534</v>
+        <v>0.1510435066161591</v>
       </c>
       <c r="C90">
-        <v>0.008601477182070567</v>
+        <v>0.03357857884666272</v>
       </c>
       <c r="D90">
-        <v>-0.2704537948039702</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2705518615959988</v>
+      </c>
+      <c r="E90">
+        <v>0.1123196036978048</v>
+      </c>
+      <c r="F90">
+        <v>-0.007131659079326596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.112494174407001</v>
+        <v>0.120811743604367</v>
       </c>
       <c r="C91">
-        <v>0.006842116026015505</v>
+        <v>0.01956120128574065</v>
       </c>
       <c r="D91">
-        <v>-0.01877802072898782</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01483834616474214</v>
+      </c>
+      <c r="E91">
+        <v>-0.05538042096053831</v>
+      </c>
+      <c r="F91">
+        <v>-0.00124650859261472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.139165633303061</v>
+        <v>0.1484838311362015</v>
       </c>
       <c r="C92">
-        <v>-0.005012386278146122</v>
+        <v>0.02458450405793071</v>
       </c>
       <c r="D92">
-        <v>-0.3028581661609353</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2915129342974256</v>
+      </c>
+      <c r="E92">
+        <v>0.1009265084015677</v>
+      </c>
+      <c r="F92">
+        <v>-0.01240335478591696</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1224495159043174</v>
+        <v>0.1519868120292353</v>
       </c>
       <c r="C93">
-        <v>0.004122518093696497</v>
+        <v>0.02885153943589799</v>
       </c>
       <c r="D93">
-        <v>-0.2653245195025988</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2674007016263827</v>
+      </c>
+      <c r="E93">
+        <v>0.07849450707362264</v>
+      </c>
+      <c r="F93">
+        <v>0.003270944146338661</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1344190829375003</v>
+        <v>0.1281611788120351</v>
       </c>
       <c r="C94">
-        <v>0.0121158086247364</v>
+        <v>0.02436044014198373</v>
       </c>
       <c r="D94">
-        <v>0.03512949156226632</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04205690234114359</v>
+      </c>
+      <c r="E94">
+        <v>-0.0571692092508629</v>
+      </c>
+      <c r="F94">
+        <v>0.03623471625656088</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1210350921495747</v>
+        <v>0.1267220703150511</v>
       </c>
       <c r="C95">
-        <v>0.0004657595258330185</v>
+        <v>0.003009695873218768</v>
       </c>
       <c r="D95">
-        <v>0.06387726127439196</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09478888049610087</v>
+      </c>
+      <c r="E95">
+        <v>-0.04891553343840604</v>
+      </c>
+      <c r="F95">
+        <v>-0.004825063245679236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01479661524774627</v>
+        <v>0.1079724136407371</v>
       </c>
       <c r="C96">
-        <v>-0.9942699420649251</v>
+        <v>-0.9872491581351734</v>
       </c>
       <c r="D96">
-        <v>-0.01258969811840474</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05105630800336978</v>
+      </c>
+      <c r="E96">
+        <v>-0.05363310033457452</v>
+      </c>
+      <c r="F96">
+        <v>0.04222640413172825</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1915211130795444</v>
+        <v>0.1925492642321389</v>
       </c>
       <c r="C97">
-        <v>-0.02616526867260187</v>
+        <v>-0.006946093789721819</v>
       </c>
       <c r="D97">
-        <v>-0.04933973841794974</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01814561947238075</v>
+      </c>
+      <c r="E97">
+        <v>-0.02129511705825717</v>
+      </c>
+      <c r="F97">
+        <v>-0.09553190784326271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2066828923726501</v>
+        <v>0.2064554553323269</v>
       </c>
       <c r="C98">
-        <v>-0.01152496958722532</v>
+        <v>0.007184595017401077</v>
       </c>
       <c r="D98">
-        <v>-0.01438950473727136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01274131453710197</v>
+      </c>
+      <c r="E98">
+        <v>0.07876144900098746</v>
+      </c>
+      <c r="F98">
+        <v>-0.09433898915891277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05636142449863833</v>
+        <v>0.05421585592373107</v>
       </c>
       <c r="C99">
-        <v>-0.007791435162155538</v>
+        <v>-0.004771219845319309</v>
       </c>
       <c r="D99">
-        <v>0.01944439716810395</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0403284839591837</v>
+      </c>
+      <c r="E99">
+        <v>-0.0226955117296864</v>
+      </c>
+      <c r="F99">
+        <v>0.001959682531275971</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1563497102509741</v>
+        <v>0.1268038240212463</v>
       </c>
       <c r="C100">
-        <v>-0.04925170865427009</v>
+        <v>-0.05394103970426122</v>
       </c>
       <c r="D100">
-        <v>0.4934816494657602</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3454956612939299</v>
+      </c>
+      <c r="E100">
+        <v>0.8873057274737248</v>
+      </c>
+      <c r="F100">
+        <v>-0.1531188354876747</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02583573546410935</v>
+        <v>0.0283247671939014</v>
       </c>
       <c r="C101">
-        <v>0.007802187586450906</v>
+        <v>0.008644117309589736</v>
       </c>
       <c r="D101">
-        <v>0.01760509730813446</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03049366226178528</v>
+      </c>
+      <c r="E101">
+        <v>-0.01318632970795128</v>
+      </c>
+      <c r="F101">
+        <v>-0.01479875522806254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
